--- a/CrowdSourcingStudy/Dialogues_test/DialogueExitCond/secondTest/dialogues_Crowd/Dom-Da_Sub_S2.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/DialogueExitCond/secondTest/dialogues_Crowd/Dom-Da_Sub_S2.xlsx
@@ -27,20 +27,7 @@
     <t xml:space="preserve">content</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;b&gt; &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose a noisy restaurant." &lt;br&gt;
-    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Noisy is my least preferred ambiance." &lt;br&gt;
-    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose the Le Gramophone restaurant." &lt;br&gt;
-    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer Japanese over French." &lt;br&gt;
-    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose Italian food." &lt;br&gt;
-    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Okay, let's choose Italian." &lt;br&gt;
-    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose the Papelli restaurant." &lt;br&gt;
-    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quiet over noisy ambiance." &lt;br&gt;
-    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose the Salento restaurant." &lt;br&gt;
-    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I don't like expensive restaurants." &lt;br&gt;
-    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose Cappadoce restaurant." &lt;br&gt;
-    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quiet over noisy ambiance." &lt;br&gt;
-    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Sorry, but I no longer want to go for dinner!!" &lt;br&gt;
-    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Ok." &lt;br&gt; &lt;/b&gt;
+    <t xml:space="preserve">   &lt;b&gt; &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose a noisy restaurant." &lt;br&gt;    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Noisy is my least preferred ambiance." &lt;br&gt;    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose the Le Gramophone restaurant."&amp;nbsp&amp;nbsp&amp;nbsp &lt;small&gt; [Gramophone: a noisy, expensive French restaurant] &lt;/small&gt;  &lt;br&gt;    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer Japanese over French." &lt;br&gt;    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose Italian food." &lt;br&gt;    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Okay, let's choose Italian." &lt;br&gt;    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose the Papelli restaurant." &amp;nbsp&amp;nbsp&amp;nbsp&lt;small&gt;[Papelli: a noisy, cheap Italian restaurant.]&lt;/small&gt; &lt;br&gt;    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quiet over noisy ambiance." &lt;br&gt;    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose the Salento restaurant." &amp;nbsp&amp;nbsp&amp;nbsp&lt;small&gt; [Salento: a noisy, expensive Italian restaurant.] &lt;/small&gt; &lt;br&gt;    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I don't like expensive restaurants." &lt;br&gt;    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's choose Cappadoce restaurant." &amp;nbsp&amp;nbsp&amp;nbsp&lt;small&gt;[Cappadoce: a noisy, cheap Turkish restaurant.]&lt;/small&gt; &lt;br&gt;    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quiet over noisy ambiance." &lt;br&gt;    &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Sorry, but I no longer want to go for dinner!!" &lt;br&gt;    &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Ok." &lt;br&gt; &lt;/b&gt;
 </t>
   </si>
 </sst>
@@ -151,7 +138,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -159,7 +146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="1295.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="1554.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -188,7 +175,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -214,7 +201,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
